--- a/Output/AU_level_HQ_scores.xlsx
+++ b/Output/AU_level_HQ_scores.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t xml:space="preserve">AU</t>
   </si>
@@ -59,12 +59,6 @@
     <t xml:space="preserve">Temperature_reach_adj_mean</t>
   </si>
   <si>
-    <t xml:space="preserve">Aeneas Creek Okanogan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lower Chiwawa River</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t xml:space="preserve">Methow</t>
   </si>
   <si>
-    <t xml:space="preserve">Lower Antoine Creek</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bear Creek</t>
   </si>
   <si>
@@ -104,9 +95,6 @@
     <t xml:space="preserve">Black Canyon Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Lower Bonaparte Creek</t>
-  </si>
-  <si>
     <t xml:space="preserve">Boulder Creek</t>
   </si>
   <si>
@@ -152,9 +140,6 @@
     <t xml:space="preserve">Chikamin Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Okanogan River-Tallant Creek</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chiwaukum Creek</t>
   </si>
   <si>
@@ -257,9 +242,6 @@
     <t xml:space="preserve">Jack Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Johnson Creek</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lake Wenatchee</t>
   </si>
   <si>
@@ -278,9 +260,6 @@
     <t xml:space="preserve">Lower Lost River</t>
   </si>
   <si>
-    <t xml:space="preserve">Lower Loup Loup Creek</t>
-  </si>
-  <si>
     <t xml:space="preserve">Methow River-Alder Creek</t>
   </si>
   <si>
@@ -311,36 +290,9 @@
     <t xml:space="preserve">Napeequa River</t>
   </si>
   <si>
-    <t xml:space="preserve">Okanogan River-Nine Mile Creek</t>
-  </si>
-  <si>
     <t xml:space="preserve">Twisp River Headwaters</t>
   </si>
   <si>
-    <t xml:space="preserve">Okanogan River-Alkali Lake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan River-Davis Canyon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan River-Mosquito Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan River-Swipkin Canyon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan River-Whitestone Coulee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Omak Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Omak Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Omak Creek</t>
-  </si>
-  <si>
     <t xml:space="preserve">Panther Creek</t>
   </si>
   <si>
@@ -365,36 +317,18 @@
     <t xml:space="preserve">Rock Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Salmon Creek-Green Lake</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lower White River</t>
   </si>
   <si>
-    <t xml:space="preserve">Similkameen River-Ellemeham Draw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Siwash Creek</t>
-  </si>
-  <si>
     <t xml:space="preserve">South Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Squaw Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonasket Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Tunk Creek</t>
+    <t xml:space="preserve">Swaram Creek</t>
   </si>
   <si>
     <t xml:space="preserve">Twenty Mile Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Wanacut Creek</t>
-  </si>
-  <si>
     <t xml:space="preserve">War Creek</t>
   </si>
   <si>
@@ -411,12 +345,6 @@
   </si>
   <si>
     <t xml:space="preserve">Whitepine Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whitestone Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wildhorse Spring Creek</t>
   </si>
   <si>
     <t xml:space="preserve">Wolf Creek</t>
@@ -806,41 +734,43 @@
         <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F2"/>
+        <v>0.466666666666667</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.536507936507936</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.538742439446126</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.00223450293818961</v>
+      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.55352641374579</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.58849915816328</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.2892795004876</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.29424957908164</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.72725772887979</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.90252053527054</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.88807685944704</v>
       </c>
     </row>
     <row r="3">
@@ -851,41 +781,43 @@
         <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F3"/>
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -893,330 +825,330 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.555555555555556</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.555555555555556</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F5"/>
+        <v>0.722222222222222</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.517948717948718</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.515822282824575</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.00212643512414268</v>
+      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2.82182529141501</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>4.5146354506316</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.85519878075131</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.05437394118008</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>2.6555067161175</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.76341386322793</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2.95819988122521</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.63441608074961</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.95443272180764</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F6"/>
+        <v>0.75</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.414814814814815</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.44226477369192</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.0274499588771057</v>
+      </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.8370541920677</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2.60420416865198</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1.70904574788569</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>2.67410838413541</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>2.67410838413541</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.57893375078975</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>4.82446018847049</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.624074074074074</v>
+        <v>0.811111111111111</v>
       </c>
       <c r="E7" t="n">
-        <v>0.625410644227963</v>
+        <v>0.797564996647664</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.00133657015388922</v>
+        <v>0.0135461144634467</v>
       </c>
       <c r="G7" t="n">
-        <v>2.78889912761593</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>4.50107108488998</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.87909881436314</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.58998572901053</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>2.75680204764983</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>2.9570317034095</v>
+        <v>1.5936165660966</v>
       </c>
       <c r="N7" t="n">
-        <v>2.61193384764847</v>
+        <v>3.2968082830483</v>
       </c>
       <c r="O7" t="n">
-        <v>3.05865663567097</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>0.727272727272727</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.444444444444444</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.459251858585969</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-0.0148074141415241</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F8"/>
       <c r="G8" t="n">
-        <v>1.80194703973462</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2.5189287956905</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.67384830096164</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>2.60389407946923</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2.60389407946923</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1.27276085859016</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4.1910604824532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.674074074074074</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.615218077872163</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.0588559962019113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F9"/>
       <c r="G9" t="n">
-        <v>3.24340970204649</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>3.82893980136433</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3.82893980136433</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>3.82893980136433</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.24603619919334</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3.12301809959667</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2.58553009931784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F10"/>
+        <v>0.4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.695796665377796</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.00420333462220379</v>
+      </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>4.68915005799917</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>3.62169988400165</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1258,137 +1190,143 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F12"/>
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.466666666666667</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.466666666666667</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F13"/>
+        <v>0.125</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.422222222222222</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.422222222222222</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
       <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F14"/>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.688888888888889</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.677516752683423</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0113721362054658</v>
+      </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>3.68933886228716</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.44632921993862</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>3.86519847695893</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>2.79804844928217</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2.82414038532823</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>3.86519847695893</v>
       </c>
     </row>
     <row r="15">
@@ -1396,25 +1334,25 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="D15" t="n">
-        <v>0.511111111111111</v>
+        <v>0.659259259259259</v>
       </c>
       <c r="E15" t="n">
-        <v>0.511111111111111</v>
+        <v>0.667952365193064</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-0.00869310593380512</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>4.04778658125061</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>4.05162400207961</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1423,19 +1361,19 @@
         <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>3.8963399187203</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>4.6894318332814</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>3.83191495542426</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>3.27114125126587</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>2.26961789166585</v>
       </c>
     </row>
     <row r="16">
@@ -1443,7 +1381,7 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1488,193 +1426,193 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.666666666666667</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="D17" t="n">
-        <v>0.661111111111111</v>
+        <v>0.584126984126984</v>
       </c>
       <c r="E17" t="n">
-        <v>0.649142632904963</v>
+        <v>0.614528745072631</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0119684782061478</v>
+        <v>-0.0304017609456473</v>
       </c>
       <c r="G17" t="n">
-        <v>3.68933886228716</v>
+        <v>3.16954494029206</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>4.53268213962396</v>
       </c>
       <c r="I17" t="n">
-        <v>2.44632921993862</v>
+        <v>3.11995640133037</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>3.93084039938314</v>
       </c>
       <c r="K17" t="n">
-        <v>3.86519847695893</v>
+        <v>2.72782318113961</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>3.27661745020339</v>
       </c>
       <c r="M17" t="n">
-        <v>2.79804844928217</v>
+        <v>2.8501761230914</v>
       </c>
       <c r="N17" t="n">
-        <v>3.23577729839998</v>
+        <v>2.85990628375425</v>
       </c>
       <c r="O17" t="n">
-        <v>2.17672617385648</v>
+        <v>1.18624660945024</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" t="n">
-        <v>0.818181818181818</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.661728395061728</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.669677743897057</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.00794934883532816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D18" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E18" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F18"/>
       <c r="G18" t="n">
-        <v>4.04778658125061</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>4.05162400207961</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>3.8963399187203</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>4.6894318332814</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>3.83191495542426</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>3.34878329294552</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>2.26961789166585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E19" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F19"/>
+        <v>0.615384615384615</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.366666666666667</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.369749831783921</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.00308316511725432</v>
+      </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2.07605600940564</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>3.79554388979414</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.30731030244909</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.17824133272743</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2.3987669128769</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>2.31319922393215</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.5696247590911</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>0.545454545454545</v>
+        <v>0.75</v>
       </c>
       <c r="D20" t="n">
-        <v>0.605555555555556</v>
+        <v>0.703703703703704</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6335423578507</v>
+        <v>0.727224642681789</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0279868022951448</v>
+        <v>-0.0235209389780856</v>
       </c>
       <c r="G20" t="n">
-        <v>3.17539396426765</v>
+        <v>3.71544691673114</v>
       </c>
       <c r="H20" t="n">
-        <v>4.44707741294296</v>
+        <v>4.53363324425324</v>
       </c>
       <c r="I20" t="n">
-        <v>2.93890101395928</v>
+        <v>2.19015139641811</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4943355970646</v>
+        <v>5</v>
       </c>
       <c r="K20" t="n">
-        <v>2.71843352470767</v>
+        <v>3.91690220479951</v>
       </c>
       <c r="L20" t="n">
-        <v>3.35078792853531</v>
+        <v>4.04561114726181</v>
       </c>
       <c r="M20" t="n">
-        <v>3.09919787000464</v>
+        <v>3.68450140949039</v>
       </c>
       <c r="N20" t="n">
-        <v>3.07968425160545</v>
+        <v>3.21228295869071</v>
       </c>
       <c r="O20" t="n">
-        <v>2.20559454019396</v>
+        <v>2.42657964303561</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1716,149 +1654,149 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
       </c>
       <c r="C22" t="n">
-        <v>0.538461538461538</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.412698412698413</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.416059721268393</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.00336130856997985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E22" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F22"/>
       <c r="G22" t="n">
-        <v>2.18133760386237</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>3.87338010691084</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.33737762083402</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>2.14426160407129</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>2.44168297099219</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.74464755040695</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" t="n">
-        <v>0.75</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="D23" t="n">
-        <v>0.671604938271605</v>
+        <v>0.632323232323232</v>
       </c>
       <c r="E23" t="n">
-        <v>0.695679828178769</v>
+        <v>0.632829178409545</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.0240748899071644</v>
+        <v>-0.000505946086312381</v>
       </c>
       <c r="G23" t="n">
-        <v>3.71544691673114</v>
+        <v>4.557608879178</v>
       </c>
       <c r="H23" t="n">
-        <v>4.53363324425324</v>
+        <v>4.60554943238248</v>
       </c>
       <c r="I23" t="n">
-        <v>2.19015139641811</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>4.763051941904</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>3.91690220479951</v>
+        <v>2.94356840940228</v>
       </c>
       <c r="L23" t="n">
-        <v>4.04561114726181</v>
+        <v>3.54162014323828</v>
       </c>
       <c r="M23" t="n">
-        <v>3.68450140949039</v>
+        <v>5</v>
       </c>
       <c r="N23" t="n">
-        <v>3.21228295869071</v>
+        <v>2.82896616422847</v>
       </c>
       <c r="O23" t="n">
-        <v>1.24401104849572</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F24"/>
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.795555555555556</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.806830978389502</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.0112754228339464</v>
+      </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3.99064110641622</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>4.32709407094415</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>4.34616811562395</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>2.64349073454327</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1900,104 +1838,102 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C26" t="n">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.632323232323232</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.632829178409545</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-0.000505946086312381</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D26" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E26" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F26"/>
       <c r="G26" t="n">
-        <v>4.557608879178</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>4.60554943238248</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>2.94356840940228</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>3.54162014323828</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>2.82896616422847</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D27" t="n">
-        <v>0.666666666666667</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="E27" t="n">
-        <v>0.667926479193942</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.00125981252727514</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>3.05669156372738</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2039,7 +1975,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
@@ -2084,10 +2020,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2129,7 +2065,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -2174,7 +2110,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
@@ -2219,55 +2155,57 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E33" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F33"/>
+        <v>0.625</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.550552023220413</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.00500353233514261</v>
+      </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>4.40002930631182</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>4.19994138737635</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1.57475312598312</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>2.60011722524729</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -2309,10 +2247,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -2354,102 +2292,102 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E36" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F36"/>
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.866666666666667</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.855474781307688</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0111918853589785</v>
+      </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>2.49636515884597</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C37" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.693333333333333</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.693335287087455</v>
-      </c>
-      <c r="F37" t="n">
-        <v>-0.00000195375412148646</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F37"/>
       <c r="G37" t="n">
-        <v>4.40002930631182</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>4.19994138737635</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>2.60011722524729</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -2491,10 +2429,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -2536,147 +2474,151 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="D40" t="n">
-        <v>0.844444444444444</v>
+        <v>0.795959595959596</v>
       </c>
       <c r="E40" t="n">
-        <v>0.844444444444445</v>
+        <v>0.790382249687746</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.000000000000000111022302462516</v>
+        <v>0.00557734627184969</v>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>4.41081123585187</v>
       </c>
       <c r="H40" t="n">
         <v>5</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>1.99600993671778</v>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>3.61476717241375</v>
       </c>
       <c r="K40" t="n">
-        <v>5</v>
+        <v>4.53946403525628</v>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>3.31513232995312</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>3.68900160243772</v>
       </c>
       <c r="N40" t="n">
-        <v>4</v>
+        <v>4.00201492331807</v>
       </c>
       <c r="O40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E41" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F41"/>
+        <v>0.625</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.595555555555556</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.596649869018604</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.00109431346304811</v>
+      </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.78781052682906</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>2.06143357900811</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E42" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F42"/>
+        <v>0.235294117647059</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.772222222222222</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.798790147120437</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.0265679248982148</v>
+      </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>4.4423794382194</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>3.72210278891369</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>3.82395386967075</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>3.82395386967075</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>3.82395386967075</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>3.30921278427432</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -2718,196 +2660,194 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C44" t="n">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.753535353535354</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.750926340289709</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.00260901324564422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F44"/>
       <c r="G44" t="n">
-        <v>4.41081123585187</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.99600993671778</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3.61476717241375</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>4.53946403525628</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>3.31513232995312</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>3.68900160243772</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>4.53388258661327</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>2.69261641379313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C45" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.693333333333333</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.700510540394668</v>
-      </c>
-      <c r="F45" t="n">
-        <v>-0.00717720706133484</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F45"/>
       <c r="G45" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.78781052682906</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>4.73516379093101</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C46" t="n">
-        <v>0.176470588235294</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="D46" t="n">
-        <v>0.755555555555556</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="E46" t="n">
-        <v>0.779044018710708</v>
+        <v>0.543429615577432</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.023488463155153</v>
+        <v>0.0121259399781241</v>
       </c>
       <c r="G46" t="n">
-        <v>4.19277521487595</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>3.45433270098442</v>
       </c>
       <c r="I46" t="n">
-        <v>3.15008560958403</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
         <v>3</v>
       </c>
       <c r="K46" t="n">
-        <v>4.19277521487595</v>
+        <v>3</v>
       </c>
       <c r="L46" t="n">
-        <v>4.19277521487595</v>
+        <v>2.54566729901559</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N46" t="n">
-        <v>3.32856958777001</v>
+        <v>1.45433270098442</v>
       </c>
       <c r="O46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
         <v>18</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E47" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F47"/>
+        <v>0.857142857142857</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.575925925925926</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.568290015322627</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.00763591060329905</v>
+      </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>3.16331556518694</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>4.89029546229137</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>2.20826063788001</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>1.99982754439776</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>2.05094866100976</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>2.4054339748801</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>3.39236616618648</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>2.21762438820982</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>3.24497828947596</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -2949,10 +2889,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -2994,101 +2934,97 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C50" t="n">
-        <v>0.285714285714286</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.511111111111111</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.498985171132987</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.012125939978124</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F50"/>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>3.45433270098442</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>2.54566729901559</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>1.45433270098442</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C51" t="n">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.583838383838384</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.577570788650036</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.00626759518834774</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F51"/>
       <c r="G51" t="n">
-        <v>3.05672237864162</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>2.04624021184931</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>3.82876074886907</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>1.8797985311614</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>2.48699925796412</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>3.29906608159046</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>2.45097197001227</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>1.94212630916339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
         <v>18</v>
@@ -3133,100 +3069,104 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E53" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F53"/>
+        <v>0.125</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E54" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F54"/>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.605555555555556</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.626355418646748</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.020799863091192</v>
+      </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>3.44533001659494</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>3.6029800094607</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2.68551504839974</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>4.60257249239507</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>3.20555250185578</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1.6029800094607</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>3.0410637609367</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -3268,10 +3208,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -3313,104 +3253,100 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C57" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.644444444444444</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.644444444444444</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F57"/>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C58" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.599574418984744</v>
-      </c>
-      <c r="F58" t="n">
-        <v>-0.0162410856514111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D58" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E58" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F58"/>
       <c r="G58" t="n">
-        <v>3.44533001659494</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>3.6029800094607</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>2.68551504839974</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>3.20555250185578</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>1.6029800094607</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>3.0410637609367</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>3.39742750760493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -3452,10 +3388,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -3497,55 +3433,57 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E61" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F61"/>
+        <v>0.833333333333333</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.631111111111111</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.623465524650297</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0076455864608137</v>
+      </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>3.25112292306254</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1.13710466182945</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>2.33544204874277</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>2.33227897562862</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -3587,52 +3525,54 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E63" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F63"/>
+        <v>0.714285714285714</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.617777777777778</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.61689095776236</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.000886820015417511</v>
+      </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>4.51026083745301</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>2.37094928455233</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>3.34728595368847</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>1.34728595368847</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>3.25620414927701</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>1.92810692064692</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
@@ -3677,7 +3617,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
         <v>18</v>
@@ -3722,282 +3662,292 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>0.588888888888889</v>
+        <v>0.377777777777778</v>
       </c>
       <c r="E66" t="n">
-        <v>0.564413345245763</v>
+        <v>0.377697602178046</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0244755436431262</v>
+        <v>0.0000801755997321685</v>
       </c>
       <c r="G66" t="n">
-        <v>3.24998713891362</v>
+        <v>1.97630618415346</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I66" t="n">
-        <v>1.14553020486786</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>3</v>
+        <v>1.97630618415346</v>
       </c>
       <c r="L66" t="n">
-        <v>3</v>
+        <v>1.97630618415346</v>
       </c>
       <c r="M66" t="n">
-        <v>2.33844772571512</v>
+        <v>1</v>
       </c>
       <c r="N66" t="n">
-        <v>2.33077613714244</v>
+        <v>1.22132762952215</v>
       </c>
       <c r="O66" t="n">
-        <v>2.33385932942029</v>
+        <v>1.84614591602953</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B67" t="s">
         <v>18</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E67" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F67"/>
+        <v>0.833333333333333</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.413333333333333</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.403125092422052</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0102082409112814</v>
+      </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>1.26310349372293</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>1.87752566526941</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B68" t="s">
         <v>18</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E68" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F68"/>
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.437037037037037</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.433837824241454</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.00319921279558349</v>
+      </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>1.52270209086541</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B69" t="s">
         <v>18</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E69" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F69"/>
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.688888888888889</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.688005544080367</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.000883344808521591</v>
+      </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>3.59076313484458</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>2.04904451496194</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>1.63260152869735</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>3.26058177661986</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>4.05016941707029</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>4.39423136917104</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>2.61860789236876</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>4.36424984988272</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B70" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E70" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F70"/>
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.433333333333333</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.43359674869209</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.000263415358756902</v>
+      </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>1.51185369114406</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E71" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F71"/>
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.62962962962963</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.628624208795786</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0010054208338437</v>
+      </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>3.31964652412216</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>3.63929304824433</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>2.22276335072417</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>3.63929304824433</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>1.31964652412216</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>3.14744690035321</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -4039,187 +3989,183 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C73" t="n">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.533333333333333</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.533333333333333</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D73" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E73" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F73"/>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.540740740740741</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.53996951766898</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.000771223071760474</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D74" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E74" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F74"/>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>4.29862829510411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D75" t="n">
-        <v>0.696296296296296</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="E75" t="n">
-        <v>0.693954231228104</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00234206506819279</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>3.59076313484458</v>
+        <v>3</v>
       </c>
       <c r="H75" t="n">
         <v>5</v>
       </c>
       <c r="I75" t="n">
-        <v>2.04904451496194</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>4.26722677670629</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>3.26058177661986</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
-        <v>4.05016941707029</v>
+        <v>3</v>
       </c>
       <c r="M75" t="n">
-        <v>4.39423136917104</v>
+        <v>1</v>
       </c>
       <c r="N75" t="n">
-        <v>2.93379849094931</v>
+        <v>3</v>
       </c>
       <c r="O75" t="n">
-        <v>1.68212492494136</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>0.544444444444445</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E76" t="n">
-        <v>0.549744379376617</v>
+        <v>0.875171142421207</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.00529993493217218</v>
+        <v>0.0137177464676821</v>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>4.8689957808042</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>2.271145523825</v>
       </c>
       <c r="J76" t="n">
-        <v>4.73849707194775</v>
+        <v>4.68916971317811</v>
       </c>
       <c r="K76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L76" t="n">
-        <v>3</v>
+        <v>3.6843946103428</v>
       </c>
       <c r="M76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N76" t="n">
-        <v>1</v>
+        <v>3.8689957808042</v>
       </c>
       <c r="O76" t="n">
         <v>5</v>
@@ -4227,57 +4173,55 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.679012345679012</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.67757314972202</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.00143919595699238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F77"/>
       <c r="G77" t="n">
-        <v>3.31964652412216</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>3.63929304824433</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>3.63929304824433</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>2.63929304824433</v>
+        <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>3.25326606863574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -4319,55 +4263,57 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B79" t="s">
         <v>18</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E79" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F79"/>
+        <v>0.916666666666667</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.44040404040404</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.449178169117515</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.00877412871347422</v>
+      </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>2.4204740048065</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>4.29692859660089</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1.56539524825496</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>2.03882555869523</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>2.0904037337755</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>2.55890398037319</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>2.58109497920152</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>1.66099150858036</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -4409,55 +4355,57 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B81" t="s">
         <v>18</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E81" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F81"/>
+        <v>0.571428571428571</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.773927772372896</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.0239277723728962</v>
+      </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>4.46233314411562</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>4.53373400380106</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>4.57889964316535</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>4.11263364696641</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>2.81203264126482</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>3.32711667746706</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -4499,54 +4447,52 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.866666666666667</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.885651612212734</v>
-      </c>
-      <c r="F83" t="n">
-        <v>-0.0189849455460673</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D83" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E83" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F83"/>
       <c r="G83" t="n">
-        <v>4.8689957808042</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>4.37833942635622</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>4.73799156160841</v>
+        <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>3.8689957808042</v>
+        <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B84" t="s">
         <v>16</v>
@@ -4591,100 +4537,104 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E85" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F85"/>
+        <v>0.1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.755555555555556</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.755555555555556</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E86" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F86"/>
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.866666666666667</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.866666666666667</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -4726,235 +4676,245 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E88" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F88"/>
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.422222222222222</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.422222222222222</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E89" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F89"/>
+        <v>1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.809964127771516</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.0099641277715159</v>
+      </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>3.89677149943643</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>3.55161425028178</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B90" t="s">
         <v>16</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E90" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F90"/>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.533333333333333</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.5335484368756</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.000215103542266726</v>
+      </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>3.61655597959496</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>4.23311195918992</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>1.62623563899696</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>3.76688804081008</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>3.76688804081008</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B91" t="s">
         <v>16</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E91" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F91"/>
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.477777777777778</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.475471326661166</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.00230645111661193</v>
+      </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1.46906419767453</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>4.63632065927431</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>3.00964334784495</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>1.97871018388238</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>1.58509660104509</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>1.7173747100312</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E92" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F92"/>
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.422222222222222</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.423460601909449</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.00123837968722718</v>
+      </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1.51159477522802</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>2.5441323106972</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -4996,1143 +4956,94 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C94" t="n">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.448484848484848</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.458890843539972</v>
-      </c>
-      <c r="F94" t="n">
-        <v>-0.0104059950551232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D94" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E94" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F94"/>
       <c r="G94" t="n">
-        <v>2.4204740048065</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>4.29692859660089</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1.56539524825496</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>2.4758959077058</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>2.0904037337755</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>2.55890398037319</v>
+        <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>2.58109497920152</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>1.66099150858036</v>
+        <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B95" t="s">
         <v>18</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E95" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F95"/>
+        <v>0.857142857142857</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.785185185185185</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.813102315736005</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-0.02791713055082</v>
+      </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>4.48672095128376</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>4.43494526154572</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>4.19259891463372</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>3.16759305416241</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>4.48672095128376</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>4.19259891463372</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>3.16759305416241</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>3.46083310641474</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>113</v>
-      </c>
-      <c r="B96" t="s">
-        <v>20</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.705555555555555</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.717622572288428</v>
-      </c>
-      <c r="F96" t="n">
-        <v>-0.0120670167328727</v>
-      </c>
-      <c r="G96" t="n">
-        <v>4.46233314411562</v>
-      </c>
-      <c r="H96" t="n">
-        <v>5</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>5</v>
-      </c>
-      <c r="K96" t="n">
-        <v>4.57889964316535</v>
-      </c>
-      <c r="L96" t="n">
-        <v>4.11263364696641</v>
-      </c>
-      <c r="M96" t="n">
-        <v>2.81203264126482</v>
-      </c>
-      <c r="N96" t="n">
-        <v>3.32711667746706</v>
-      </c>
-      <c r="O96" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>114</v>
-      </c>
-      <c r="B97" t="s">
-        <v>34</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E97" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F97"/>
-      <c r="G97" t="n">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0</v>
-      </c>
-      <c r="O97" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>115</v>
-      </c>
-      <c r="B98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E98" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F98"/>
-      <c r="G98" t="n">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0</v>
-      </c>
-      <c r="O98" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>116</v>
-      </c>
-      <c r="B99" t="s">
-        <v>18</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0</v>
-      </c>
-      <c r="D99" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E99" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F99"/>
-      <c r="G99" t="n">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0</v>
-      </c>
-      <c r="O99" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>117</v>
-      </c>
-      <c r="B100" t="s">
-        <v>16</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E100" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F100"/>
-      <c r="G100" t="n">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0</v>
-      </c>
-      <c r="O100" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>118</v>
-      </c>
-      <c r="B101" t="s">
-        <v>18</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E101" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F101"/>
-      <c r="G101" t="n">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0</v>
-      </c>
-      <c r="N101" t="n">
-        <v>0</v>
-      </c>
-      <c r="O101" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>119</v>
-      </c>
-      <c r="B102" t="s">
-        <v>16</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E102" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F102"/>
-      <c r="G102" t="n">
-        <v>0</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0</v>
-      </c>
-      <c r="N102" t="n">
-        <v>0</v>
-      </c>
-      <c r="O102" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>120</v>
-      </c>
-      <c r="B103" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E103" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F103"/>
-      <c r="G103" t="n">
-        <v>0</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0</v>
-      </c>
-      <c r="M103" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103" t="n">
-        <v>0</v>
-      </c>
-      <c r="O103" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>121</v>
-      </c>
-      <c r="B104" t="s">
-        <v>20</v>
-      </c>
-      <c r="C104" t="n">
-        <v>1</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0</v>
-      </c>
-      <c r="G104" t="n">
-        <v>4</v>
-      </c>
-      <c r="H104" t="n">
-        <v>5</v>
-      </c>
-      <c r="I104" t="n">
-        <v>5</v>
-      </c>
-      <c r="J104" t="n">
-        <v>5</v>
-      </c>
-      <c r="K104" t="n">
-        <v>5</v>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="n">
-        <v>5</v>
-      </c>
-      <c r="N104" t="n">
-        <v>4</v>
-      </c>
-      <c r="O104" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>122</v>
-      </c>
-      <c r="B105" t="s">
-        <v>20</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D105" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E105" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F105"/>
-      <c r="G105" t="n">
-        <v>0</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0</v>
-      </c>
-      <c r="L105" t="n">
-        <v>0</v>
-      </c>
-      <c r="M105" t="n">
-        <v>0</v>
-      </c>
-      <c r="N105" t="n">
-        <v>0</v>
-      </c>
-      <c r="O105" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>123</v>
-      </c>
-      <c r="B106" t="s">
-        <v>16</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D106" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E106" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F106"/>
-      <c r="G106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0</v>
-      </c>
-      <c r="L106" t="n">
-        <v>0</v>
-      </c>
-      <c r="M106" t="n">
-        <v>0</v>
-      </c>
-      <c r="N106" t="n">
-        <v>0</v>
-      </c>
-      <c r="O106" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>124</v>
-      </c>
-      <c r="B107" t="s">
-        <v>16</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0</v>
-      </c>
-      <c r="D107" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E107" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F107"/>
-      <c r="G107" t="n">
-        <v>0</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0</v>
-      </c>
-      <c r="L107" t="n">
-        <v>0</v>
-      </c>
-      <c r="M107" t="n">
-        <v>0</v>
-      </c>
-      <c r="N107" t="n">
-        <v>0</v>
-      </c>
-      <c r="O107" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>125</v>
-      </c>
-      <c r="B108" t="s">
-        <v>20</v>
-      </c>
-      <c r="C108" t="n">
-        <v>1</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.422222222222222</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.422222222222222</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0</v>
-      </c>
-      <c r="G108" t="n">
-        <v>1</v>
-      </c>
-      <c r="H108" t="n">
-        <v>3</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>3</v>
-      </c>
-      <c r="K108" t="n">
-        <v>1</v>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="n">
-        <v>3</v>
-      </c>
-      <c r="N108" t="n">
-        <v>1</v>
-      </c>
-      <c r="O108" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>126</v>
-      </c>
-      <c r="B109" t="s">
-        <v>16</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0</v>
-      </c>
-      <c r="D109" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E109" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F109"/>
-      <c r="G109" t="n">
-        <v>0</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0</v>
-      </c>
-      <c r="L109" t="n">
-        <v>0</v>
-      </c>
-      <c r="M109" t="n">
-        <v>0</v>
-      </c>
-      <c r="N109" t="n">
-        <v>0</v>
-      </c>
-      <c r="O109" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>127</v>
-      </c>
-      <c r="B110" t="s">
-        <v>20</v>
-      </c>
-      <c r="C110" t="n">
-        <v>1</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.788888888888889</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.783906825003131</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0.00498206388575806</v>
-      </c>
-      <c r="G110" t="n">
-        <v>4</v>
-      </c>
-      <c r="H110" t="n">
-        <v>5</v>
-      </c>
-      <c r="I110" t="n">
-        <v>5</v>
-      </c>
-      <c r="J110" t="n">
-        <v>5</v>
-      </c>
-      <c r="K110" t="n">
-        <v>5</v>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="n">
-        <v>5</v>
-      </c>
-      <c r="N110" t="n">
-        <v>4</v>
-      </c>
-      <c r="O110" t="n">
-        <v>1.27580712514089</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>128</v>
-      </c>
-      <c r="B111" t="s">
-        <v>18</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.688888888888889</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.688888888888889</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0</v>
-      </c>
-      <c r="G111" t="n">
-        <v>3.61655597959496</v>
-      </c>
-      <c r="H111" t="n">
-        <v>4.23311195918992</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>5</v>
-      </c>
-      <c r="K111" t="n">
-        <v>3.76688804081008</v>
-      </c>
-      <c r="L111" t="n">
-        <v>3.76688804081008</v>
-      </c>
-      <c r="M111" t="n">
-        <v>3</v>
-      </c>
-      <c r="N111" t="n">
-        <v>2</v>
-      </c>
-      <c r="O111" t="n">
-        <v>4.61655597959496</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>129</v>
-      </c>
-      <c r="B112" t="s">
-        <v>18</v>
-      </c>
-      <c r="C112" t="n">
-        <v>1</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.548148148148148</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.538449661398951</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.0096984867491976</v>
-      </c>
-      <c r="G112" t="n">
-        <v>1.46906419767453</v>
-      </c>
-      <c r="H112" t="n">
-        <v>4.63632065927431</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>4.17019320209017</v>
-      </c>
-      <c r="K112" t="n">
-        <v>3.00964334784495</v>
-      </c>
-      <c r="L112" t="n">
-        <v>1.97871018388238</v>
-      </c>
-      <c r="M112" t="n">
-        <v>3</v>
-      </c>
-      <c r="N112" t="n">
-        <v>1.58509660104509</v>
-      </c>
-      <c r="O112" t="n">
-        <v>3.38120657114134</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>130</v>
-      </c>
-      <c r="B113" t="s">
-        <v>18</v>
-      </c>
-      <c r="C113" t="n">
-        <v>1</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.544444444444445</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.544702106116178</v>
-      </c>
-      <c r="F113" t="n">
-        <v>-0.000257661671733689</v>
-      </c>
-      <c r="G113" t="n">
-        <v>1.51159477522802</v>
-      </c>
-      <c r="H113" t="n">
-        <v>5</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>5</v>
-      </c>
-      <c r="K113" t="n">
-        <v>3</v>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="n">
-        <v>3</v>
-      </c>
-      <c r="N113" t="n">
-        <v>1</v>
-      </c>
-      <c r="O113" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>131</v>
-      </c>
-      <c r="B114" t="s">
-        <v>18</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0</v>
-      </c>
-      <c r="D114" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E114" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F114"/>
-      <c r="G114" t="n">
-        <v>0</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0</v>
-      </c>
-      <c r="L114" t="n">
-        <v>0</v>
-      </c>
-      <c r="M114" t="n">
-        <v>0</v>
-      </c>
-      <c r="N114" t="n">
-        <v>0</v>
-      </c>
-      <c r="O114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>132</v>
-      </c>
-      <c r="B115" t="s">
-        <v>18</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0</v>
-      </c>
-      <c r="D115" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E115" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F115"/>
-      <c r="G115" t="n">
-        <v>0</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>0</v>
-      </c>
-      <c r="M115" t="n">
-        <v>0</v>
-      </c>
-      <c r="N115" t="n">
-        <v>0</v>
-      </c>
-      <c r="O115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>133</v>
-      </c>
-      <c r="B116" t="s">
-        <v>16</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0</v>
-      </c>
-      <c r="D116" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E116" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F116"/>
-      <c r="G116" t="n">
-        <v>0</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>0</v>
-      </c>
-      <c r="M116" t="n">
-        <v>0</v>
-      </c>
-      <c r="N116" t="n">
-        <v>0</v>
-      </c>
-      <c r="O116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>134</v>
-      </c>
-      <c r="B117" t="s">
-        <v>16</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0</v>
-      </c>
-      <c r="D117" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E117" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F117"/>
-      <c r="G117" t="n">
-        <v>0</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M117" t="n">
-        <v>0</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>135</v>
-      </c>
-      <c r="B118" t="s">
-        <v>20</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0</v>
-      </c>
-      <c r="D118" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E118" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F118"/>
-      <c r="G118" t="n">
-        <v>0</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L118" t="n">
-        <v>0</v>
-      </c>
-      <c r="M118" t="n">
-        <v>0</v>
-      </c>
-      <c r="N118" t="n">
-        <v>0</v>
-      </c>
-      <c r="O118" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
